--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HungThanhSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HungThanhSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -288,9 +288,6 @@
     <t>203.162.69.57,20003</t>
   </si>
   <si>
-    <t>Thiết bị treo</t>
-  </si>
-  <si>
     <t>Restore thiết bị</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>Thiết bị lỗi module SIM 868</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>LE.1.00.---04.181025</t>
   </si>
   <si>
@@ -352,6 +346,18 @@
   </si>
   <si>
     <t>Cos lỗi</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>DL Ngọc Hoàn</t>
+  </si>
+  <si>
+    <t>Thiết bị thuộc đại lý khác</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1330,9 @@
       <c r="B6" s="37">
         <v>44511</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44515</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1336,13 +1344,13 @@
         <v>65</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="40" t="s">
@@ -1381,7 +1389,9 @@
       <c r="B7" s="37">
         <v>44511</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44515</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1394,11 +1404,11 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>77</v>
@@ -1434,7 +1444,9 @@
       <c r="B8" s="37">
         <v>44511</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44515</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1462,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>71</v>
@@ -1459,13 +1471,21 @@
         <v>77</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
       <c r="U8" s="79"/>
@@ -1481,7 +1501,9 @@
       <c r="B9" s="37">
         <v>44511</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44515</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -1492,27 +1514,37 @@
       <c r="G9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I9" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" s="40" t="s">
         <v>77</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="79"/>
@@ -1528,7 +1560,9 @@
       <c r="B10" s="37">
         <v>44511</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44515</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1540,20 +1574,20 @@
         <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
+      <c r="J10" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40" t="s">
         <v>77</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
@@ -1583,7 +1617,9 @@
       <c r="B11" s="37">
         <v>44511</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44515</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1636,7 +1672,9 @@
       <c r="B12" s="37">
         <v>44511</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44515</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -1693,7 +1731,9 @@
       <c r="B13" s="37">
         <v>44511</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44515</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -1748,7 +1788,9 @@
       <c r="B14" s="37">
         <v>44511</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44515</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -1760,14 +1802,16 @@
         <v>65</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>77</v>
@@ -1803,7 +1847,9 @@
       <c r="B15" s="37">
         <v>44511</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44515</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -1858,7 +1904,9 @@
       <c r="B16" s="37">
         <v>44511</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37">
+        <v>44515</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -1911,7 +1959,9 @@
       <c r="B17" s="37">
         <v>44511</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37">
+        <v>44515</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -1923,14 +1973,16 @@
         <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="40"/>
+        <v>96</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L17" s="40" t="s">
         <v>77</v>
@@ -1964,7 +2016,9 @@
       <c r="B18" s="37">
         <v>44511</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37">
+        <v>44515</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -1975,13 +2029,17 @@
       <c r="G18" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="I18" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18" s="40" t="s">
         <v>77</v>
@@ -2015,7 +2073,9 @@
       <c r="B19" s="37">
         <v>44511</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="37">
+        <v>44515</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
@@ -2027,14 +2087,16 @@
         <v>65</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L19" s="40" t="s">
         <v>77</v>
@@ -2072,7 +2134,9 @@
       <c r="B20" s="37">
         <v>44511</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="37">
+        <v>44515</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>44</v>
       </c>
@@ -2084,14 +2148,16 @@
         <v>65</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L20" s="40" t="s">
         <v>77</v>
@@ -2151,7 +2217,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2332,7 +2398,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2652,7 +2718,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2770,7 +2836,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -3259,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3475,7 +3541,9 @@
       <c r="B6" s="37">
         <v>44511</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44515</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>69</v>
       </c>
@@ -3489,16 +3557,16 @@
       <c r="H6" s="64"/>
       <c r="I6" s="60"/>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>62</v>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HungThanhSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HungThanhSG.xlsx
@@ -560,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,9 +769,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,20 +808,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1147,43 +1150,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1228,58 +1231,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1304,23 +1307,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,9 +1333,7 @@
       <c r="B6" s="37">
         <v>44511</v>
       </c>
-      <c r="C6" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1374,7 +1375,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1389,13 +1390,11 @@
       <c r="B7" s="37">
         <v>44511</v>
       </c>
-      <c r="C7" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="83">
         <v>868183035870588</v>
       </c>
       <c r="F7" s="55"/>
@@ -1431,7 +1430,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1444,13 +1443,11 @@
       <c r="B8" s="37">
         <v>44511</v>
       </c>
-      <c r="C8" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="83">
         <v>868183038487919</v>
       </c>
       <c r="F8" s="55"/>
@@ -1488,7 +1485,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1501,9 +1498,7 @@
       <c r="B9" s="37">
         <v>44511</v>
       </c>
-      <c r="C9" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -1547,7 +1542,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1560,9 +1555,7 @@
       <c r="B10" s="37">
         <v>44511</v>
       </c>
-      <c r="C10" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1604,7 +1597,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1618,7 +1611,7 @@
         <v>44511</v>
       </c>
       <c r="C11" s="37">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
@@ -1659,7 +1652,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1673,7 +1666,7 @@
         <v>44511</v>
       </c>
       <c r="C12" s="37">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
@@ -1716,7 +1709,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1732,7 +1725,7 @@
         <v>44511</v>
       </c>
       <c r="C13" s="37">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
@@ -1775,7 +1768,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1788,9 +1781,7 @@
       <c r="B14" s="37">
         <v>44511</v>
       </c>
-      <c r="C14" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C14" s="37"/>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -1834,7 +1825,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1847,13 +1838,11 @@
       <c r="B15" s="37">
         <v>44511</v>
       </c>
-      <c r="C15" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C15" s="37"/>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="83">
         <v>868183035933550</v>
       </c>
       <c r="F15" s="38"/>
@@ -1891,7 +1880,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1904,13 +1893,11 @@
       <c r="B16" s="37">
         <v>44511</v>
       </c>
-      <c r="C16" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C16" s="37"/>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="83">
         <v>868183038025941</v>
       </c>
       <c r="F16" s="55"/>
@@ -1946,7 +1933,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1959,9 +1946,7 @@
       <c r="B17" s="37">
         <v>44511</v>
       </c>
-      <c r="C17" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C17" s="37"/>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -2016,9 +2001,7 @@
       <c r="B18" s="37">
         <v>44511</v>
       </c>
-      <c r="C18" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C18" s="37"/>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -2073,9 +2056,7 @@
       <c r="B19" s="37">
         <v>44511</v>
       </c>
-      <c r="C19" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C19" s="37"/>
       <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
@@ -2134,9 +2115,7 @@
       <c r="B20" s="37">
         <v>44511</v>
       </c>
-      <c r="C20" s="37">
-        <v>44515</v>
-      </c>
+      <c r="C20" s="37"/>
       <c r="D20" s="38" t="s">
         <v>44</v>
       </c>
@@ -3297,13 +3276,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3315,6 +3287,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3358,43 +3337,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3439,58 +3418,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3515,23 +3494,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,7 +3521,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="37">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>69</v>
@@ -3579,7 +3558,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3610,7 +3589,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3639,7 +3618,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3668,7 +3647,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3676,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3726,7 +3705,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3755,7 +3734,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3786,7 +3765,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3794,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3844,7 +3823,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3873,7 +3852,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5104,6 +5083,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5115,13 +5101,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5165,43 +5144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5246,58 +5225,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5322,23 +5301,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5364,7 +5343,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5395,7 +5374,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5424,7 +5403,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5453,7 +5432,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5482,7 +5461,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5511,7 +5490,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5540,7 +5519,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5571,7 +5550,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5600,7 +5579,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5629,7 +5608,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5658,7 +5637,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6889,6 +6868,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6900,13 +6886,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HungThanhSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HungThanhSG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Thiết bị thuộc đại lý khác</t>
+  </si>
+  <si>
+    <t>Thiết bị không thuộc diện bảo hành</t>
   </si>
 </sst>
 </file>
@@ -760,9 +763,24 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,21 +800,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S20"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,43 +1141,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -1219,58 +1222,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1295,23 +1298,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1324,9 @@
       <c r="B6" s="36">
         <v>44511</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36">
+        <v>44531</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1363,7 +1368,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1378,7 +1383,9 @@
       <c r="B7" s="36">
         <v>44511</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="36">
+        <v>44531</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1418,7 +1425,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1438,9 @@
       <c r="B8" s="36">
         <v>44511</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="36">
+        <v>44531</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1473,7 +1482,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1486,7 +1495,9 @@
       <c r="B9" s="36">
         <v>44511</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="36">
+        <v>44531</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1530,7 +1541,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1543,7 +1554,9 @@
       <c r="B10" s="36">
         <v>44511</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="36">
+        <v>44531</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -1585,7 +1598,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1640,7 +1653,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1697,7 +1710,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1756,7 +1769,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1769,7 +1782,9 @@
       <c r="B14" s="36">
         <v>44511</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="36">
+        <v>44531</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
@@ -1813,7 +1828,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1826,7 +1841,9 @@
       <c r="B15" s="36">
         <v>44511</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>44531</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1885,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1881,7 +1898,9 @@
       <c r="B16" s="36">
         <v>44511</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="36">
+        <v>44531</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>44</v>
       </c>
@@ -1921,7 +1940,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1934,7 +1953,9 @@
       <c r="B17" s="36">
         <v>44511</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="36">
+        <v>44531</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>44</v>
       </c>
@@ -1961,20 +1982,20 @@
         <v>77</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="39" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R17" s="37" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
@@ -1989,7 +2010,9 @@
       <c r="B18" s="36">
         <v>44511</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="36">
+        <v>44531</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>44</v>
       </c>
@@ -2016,20 +2039,20 @@
         <v>77</v>
       </c>
       <c r="M18" s="39" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="39" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R18" s="37" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
@@ -2044,7 +2067,9 @@
       <c r="B19" s="36">
         <v>44511</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="36">
+        <v>44531</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>44</v>
       </c>
@@ -2071,20 +2096,20 @@
         <v>77</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="39" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R19" s="37" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
@@ -2103,7 +2128,9 @@
       <c r="B20" s="36">
         <v>44511</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="36">
+        <v>44531</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>44</v>
       </c>
@@ -2130,20 +2157,20 @@
         <v>77</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="39" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
@@ -2152,7 +2179,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2184,7 +2211,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2493,7 +2520,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2621,7 +2648,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2803,7 +2830,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -3264,13 +3291,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3282,6 +3302,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3325,43 +3352,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -3406,58 +3433,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -3482,23 +3509,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3546,7 +3573,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="50"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3577,7 +3604,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="50"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3606,7 +3633,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="50"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3635,7 +3662,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3664,7 +3691,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3693,7 +3720,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="50"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3722,7 +3749,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3753,7 +3780,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3782,7 +3809,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3811,7 +3838,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3840,7 +3867,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5071,6 +5098,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5082,13 +5116,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5099,7 +5126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -5132,43 +5159,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5213,58 +5240,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5289,23 +5316,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,7 +5384,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5412,7 +5439,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5467,7 +5494,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5524,7 +5551,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5579,7 +5606,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5634,7 +5661,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5691,7 +5718,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5750,7 +5777,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5807,7 +5834,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5862,7 +5889,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5915,7 +5942,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7280,6 +7307,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7291,13 +7325,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
